--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW18.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW18.xlsx
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>3.5301750016334994</v>
+        <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>3.5301750016334994</v>
+        <v>0.0</v>
       </c>
       <c r="D104" t="n">
-        <v>3.5301750016334994</v>
+        <v>0.0</v>
       </c>
       <c r="E104" t="n">
-        <v>3.5301750016334994</v>
+        <v>0.0</v>
       </c>
       <c r="F104" t="n">
-        <v>3.5301750016334994</v>
+        <v>0.0</v>
       </c>
       <c r="G104" t="n">
-        <v>3.5301750016334994</v>
+        <v>0.0</v>
       </c>
       <c r="H104" t="n">
-        <v>3.5301750016334994</v>
+        <v>0.0</v>
       </c>
       <c r="I104" t="n">
-        <v>3.5301750016334994</v>
+        <v>0.0</v>
       </c>
       <c r="J104" t="n">
-        <v>3.5301750016334994</v>
+        <v>0.0</v>
       </c>
       <c r="K104" t="n">
-        <v>3.5301750016334994</v>
+        <v>0.0</v>
       </c>
       <c r="L104" t="n">
-        <v>3.5301750016334994</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
@@ -4701,37 +4701,37 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="n">
-        <v>2.682750000588</v>
+        <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>2.682750000588</v>
+        <v>0.0</v>
       </c>
       <c r="D122" t="n">
-        <v>2.682750000588</v>
+        <v>0.0</v>
       </c>
       <c r="E122" t="n">
-        <v>2.682750000588</v>
+        <v>0.0</v>
       </c>
       <c r="F122" t="n">
-        <v>2.682750000588</v>
+        <v>0.0</v>
       </c>
       <c r="G122" t="n">
-        <v>2.682750000588</v>
+        <v>0.0</v>
       </c>
       <c r="H122" t="n">
-        <v>2.682750000588</v>
+        <v>0.0</v>
       </c>
       <c r="I122" t="n">
-        <v>2.682750000588</v>
+        <v>0.0</v>
       </c>
       <c r="J122" t="n">
-        <v>2.682750000588</v>
+        <v>0.0</v>
       </c>
       <c r="K122" t="n">
-        <v>2.682750000588</v>
+        <v>0.0</v>
       </c>
       <c r="L122" t="n">
-        <v>2.682750000588</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>1.4904166669933332</v>
+        <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>1.4904166669933332</v>
+        <v>0.0</v>
       </c>
       <c r="D127" t="n">
-        <v>1.4904166669933332</v>
+        <v>0.0</v>
       </c>
       <c r="E127" t="n">
-        <v>1.4904166669933332</v>
+        <v>0.0</v>
       </c>
       <c r="F127" t="n">
-        <v>1.4904166669933332</v>
+        <v>0.0</v>
       </c>
       <c r="G127" t="n">
-        <v>1.4904166669933332</v>
+        <v>0.0</v>
       </c>
       <c r="H127" t="n">
-        <v>1.4904166669933332</v>
+        <v>0.0</v>
       </c>
       <c r="I127" t="n">
-        <v>1.4904166669933332</v>
+        <v>0.0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.4904166669933332</v>
+        <v>0.0</v>
       </c>
       <c r="K127" t="n">
-        <v>1.4904166669933332</v>
+        <v>0.0</v>
       </c>
       <c r="L127" t="n">
-        <v>1.4904166669933332</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>0.3528</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.3528</v>
+        <v>0.0</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3528</v>
+        <v>0.0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3528</v>
+        <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.3528</v>
+        <v>0.0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.3528</v>
+        <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>0.3528</v>
+        <v>0.0</v>
       </c>
       <c r="I172" t="n">
-        <v>0.3528</v>
+        <v>0.0</v>
       </c>
       <c r="J172" t="n">
-        <v>0.3528</v>
+        <v>0.0</v>
       </c>
       <c r="K172" t="n">
-        <v>0.3528</v>
+        <v>0.0</v>
       </c>
       <c r="L172" t="n">
-        <v>0.3528</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -8083,37 +8083,37 @@
         <v>210.0</v>
       </c>
       <c r="B211" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="D211" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="E211" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="F211" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="G211" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="H211" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="I211" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="J211" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="K211" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="L211" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="212">
@@ -9033,37 +9033,37 @@
         <v>235.0</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.628799999808</v>
+        <v>-0.0</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.628799999808</v>
+        <v>-0.0</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.628799999808</v>
+        <v>-0.0</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.628799999808</v>
+        <v>-0.0</v>
       </c>
       <c r="F236" t="n">
-        <v>-0.628799999808</v>
+        <v>-0.0</v>
       </c>
       <c r="G236" t="n">
-        <v>-0.628799999808</v>
+        <v>-0.0</v>
       </c>
       <c r="H236" t="n">
-        <v>-0.628799999808</v>
+        <v>-0.0</v>
       </c>
       <c r="I236" t="n">
-        <v>-0.628799999808</v>
+        <v>-0.0</v>
       </c>
       <c r="J236" t="n">
-        <v>-0.628799999808</v>
+        <v>-0.0</v>
       </c>
       <c r="K236" t="n">
-        <v>-0.628799999808</v>
+        <v>-0.0</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.628799999808</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="237">
@@ -9641,37 +9641,37 @@
         <v>251.0</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.33865263163199993</v>
+        <v>-0.0</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.33865263163199993</v>
+        <v>-0.0</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.33865263163199993</v>
+        <v>-0.0</v>
       </c>
       <c r="E252" t="n">
-        <v>-0.33865263163199993</v>
+        <v>-0.0</v>
       </c>
       <c r="F252" t="n">
-        <v>-0.33865263163199993</v>
+        <v>-0.0</v>
       </c>
       <c r="G252" t="n">
-        <v>-0.33865263163199993</v>
+        <v>-0.0</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.33865263163199993</v>
+        <v>-0.0</v>
       </c>
       <c r="I252" t="n">
-        <v>-0.33865263163199993</v>
+        <v>-0.0</v>
       </c>
       <c r="J252" t="n">
-        <v>-0.33865263163199993</v>
+        <v>-0.0</v>
       </c>
       <c r="K252" t="n">
-        <v>-0.33865263163199993</v>
+        <v>-0.0</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.33865263163199993</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="253">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>3.0855000003399997</v>
+        <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>3.0855000003399997</v>
+        <v>0.0</v>
       </c>
       <c r="D272" t="n">
-        <v>3.0855000003399997</v>
+        <v>0.0</v>
       </c>
       <c r="E272" t="n">
-        <v>3.0855000003399997</v>
+        <v>0.0</v>
       </c>
       <c r="F272" t="n">
-        <v>3.0855000003399997</v>
+        <v>0.0</v>
       </c>
       <c r="G272" t="n">
-        <v>3.0855000003399997</v>
+        <v>0.0</v>
       </c>
       <c r="H272" t="n">
-        <v>3.0855000003399997</v>
+        <v>0.0</v>
       </c>
       <c r="I272" t="n">
-        <v>3.0855000003399997</v>
+        <v>0.0</v>
       </c>
       <c r="J272" t="n">
-        <v>3.0855000003399997</v>
+        <v>0.0</v>
       </c>
       <c r="K272" t="n">
-        <v>3.0855000003399997</v>
+        <v>0.0</v>
       </c>
       <c r="L272" t="n">
-        <v>3.0855000003399997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="273">
@@ -10819,37 +10819,37 @@
         <v>282.0</v>
       </c>
       <c r="B283" t="n">
-        <v>2.823063158916</v>
+        <v>0.0</v>
       </c>
       <c r="C283" t="n">
-        <v>2.823063158916</v>
+        <v>0.0</v>
       </c>
       <c r="D283" t="n">
-        <v>2.823063158916</v>
+        <v>0.0</v>
       </c>
       <c r="E283" t="n">
-        <v>2.823063158916</v>
+        <v>0.0</v>
       </c>
       <c r="F283" t="n">
-        <v>2.823063158916</v>
+        <v>0.0</v>
       </c>
       <c r="G283" t="n">
-        <v>2.823063158916</v>
+        <v>0.0</v>
       </c>
       <c r="H283" t="n">
-        <v>2.823063158916</v>
+        <v>0.0</v>
       </c>
       <c r="I283" t="n">
-        <v>2.823063158916</v>
+        <v>0.0</v>
       </c>
       <c r="J283" t="n">
-        <v>2.823063158916</v>
+        <v>0.0</v>
       </c>
       <c r="K283" t="n">
-        <v>2.823063158916</v>
+        <v>0.0</v>
       </c>
       <c r="L283" t="n">
-        <v>2.823063158916</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="284">
@@ -11959,37 +11959,37 @@
         <v>312.0</v>
       </c>
       <c r="B313" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="C313" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="D313" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="E313" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="F313" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="G313" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="H313" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="I313" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="J313" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="K313" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="L313" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="314">
@@ -15113,37 +15113,37 @@
         <v>395.0</v>
       </c>
       <c r="B396" t="n">
-        <v>0.30954166654</v>
+        <v>0.0</v>
       </c>
       <c r="C396" t="n">
-        <v>0.30954166654</v>
+        <v>0.0</v>
       </c>
       <c r="D396" t="n">
-        <v>0.30954166654</v>
+        <v>0.0</v>
       </c>
       <c r="E396" t="n">
-        <v>0.30954166654</v>
+        <v>0.0</v>
       </c>
       <c r="F396" t="n">
-        <v>0.30954166654</v>
+        <v>0.0</v>
       </c>
       <c r="G396" t="n">
-        <v>0.30954166654</v>
+        <v>0.0</v>
       </c>
       <c r="H396" t="n">
-        <v>0.30954166654</v>
+        <v>0.0</v>
       </c>
       <c r="I396" t="n">
-        <v>0.30954166654</v>
+        <v>0.0</v>
       </c>
       <c r="J396" t="n">
-        <v>0.30954166654</v>
+        <v>0.0</v>
       </c>
       <c r="K396" t="n">
-        <v>0.30954166654</v>
+        <v>0.0</v>
       </c>
       <c r="L396" t="n">
-        <v>0.30954166654</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="397">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>1.6210833331699999</v>
+        <v>0.0</v>
       </c>
       <c r="C428" t="n">
-        <v>1.6210833331699999</v>
+        <v>0.0</v>
       </c>
       <c r="D428" t="n">
-        <v>1.6210833331699999</v>
+        <v>0.0</v>
       </c>
       <c r="E428" t="n">
-        <v>1.6210833331699999</v>
+        <v>0.0</v>
       </c>
       <c r="F428" t="n">
-        <v>1.6210833331699999</v>
+        <v>0.0</v>
       </c>
       <c r="G428" t="n">
-        <v>1.6210833331699999</v>
+        <v>0.0</v>
       </c>
       <c r="H428" t="n">
-        <v>1.6210833331699999</v>
+        <v>0.0</v>
       </c>
       <c r="I428" t="n">
-        <v>1.6210833331699999</v>
+        <v>0.0</v>
       </c>
       <c r="J428" t="n">
-        <v>1.6210833331699999</v>
+        <v>0.0</v>
       </c>
       <c r="K428" t="n">
-        <v>1.6210833331699999</v>
+        <v>0.0</v>
       </c>
       <c r="L428" t="n">
-        <v>1.6210833331699999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="429">
@@ -18305,37 +18305,37 @@
         <v>479.0</v>
       </c>
       <c r="B480" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="C480" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D480" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E480" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F480" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="G480" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="H480" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="I480" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="J480" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="K480" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="L480" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="481">
@@ -20091,37 +20091,37 @@
         <v>526.0</v>
       </c>
       <c r="B527" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="C527" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="D527" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="E527" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="F527" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="G527" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="H527" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="I527" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="J527" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="K527" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
       <c r="L527" t="n">
-        <v>0.5929000000653333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="528">
@@ -20243,37 +20243,37 @@
         <v>530.0</v>
       </c>
       <c r="B531" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="C531" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="D531" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="E531" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="F531" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="G531" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="H531" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="I531" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="J531" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="K531" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="L531" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="532">
@@ -22447,37 +22447,37 @@
         <v>588.0</v>
       </c>
       <c r="B589" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="C589" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="D589" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="E589" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="F589" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="G589" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="H589" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="I589" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="J589" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="K589" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="L589" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="590">
